--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H2">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I2">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J2">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N2">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O2">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P2">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q2">
-        <v>77.81284831513734</v>
+        <v>85.33035522809202</v>
       </c>
       <c r="R2">
-        <v>77.81284831513734</v>
+        <v>341.3214209123681</v>
       </c>
       <c r="S2">
-        <v>0.02103097321785517</v>
+        <v>0.01768003855628255</v>
       </c>
       <c r="T2">
-        <v>0.02103097321785517</v>
+        <v>0.01143535950490094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H3">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I3">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J3">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N3">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P3">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q3">
-        <v>120.805311347285</v>
+        <v>143.3235219254235</v>
       </c>
       <c r="R3">
-        <v>120.805311347285</v>
+        <v>859.941131552541</v>
       </c>
       <c r="S3">
-        <v>0.03265081953085578</v>
+        <v>0.02969594333564285</v>
       </c>
       <c r="T3">
-        <v>0.03265081953085578</v>
+        <v>0.0288107789018005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H4">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I4">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J4">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N4">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O4">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P4">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q4">
-        <v>0.3443627434334109</v>
+        <v>0.4940549930493333</v>
       </c>
       <c r="R4">
-        <v>0.3443627434334109</v>
+        <v>2.964329958296</v>
       </c>
       <c r="S4">
-        <v>9.307310799168258E-05</v>
+        <v>0.0001023658146352174</v>
       </c>
       <c r="T4">
-        <v>9.307310799168258E-05</v>
+        <v>9.931453664306029E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H5">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I5">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J5">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N5">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O5">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P5">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q5">
-        <v>45.93921517759268</v>
+        <v>51.03029073861184</v>
       </c>
       <c r="R5">
-        <v>45.93921517759268</v>
+        <v>306.181744431671</v>
       </c>
       <c r="S5">
-        <v>0.01241628374965022</v>
+        <v>0.01057323042175667</v>
       </c>
       <c r="T5">
-        <v>0.01241628374965022</v>
+        <v>0.01025806792921091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H6">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I6">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J6">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N6">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O6">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P6">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q6">
-        <v>42.18055643259496</v>
+        <v>50.38090974053875</v>
       </c>
       <c r="R6">
-        <v>42.18055643259496</v>
+        <v>201.523638962155</v>
       </c>
       <c r="S6">
-        <v>0.01140040715455421</v>
+        <v>0.0104386818071053</v>
       </c>
       <c r="T6">
-        <v>0.01140040715455421</v>
+        <v>0.00675168658945601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H7">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I7">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J7">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N7">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O7">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P7">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q7">
-        <v>391.3648847185228</v>
+        <v>419.3536096988161</v>
       </c>
       <c r="R7">
-        <v>391.3648847185228</v>
+        <v>2516.121658192897</v>
       </c>
       <c r="S7">
-        <v>0.1057766755380814</v>
+        <v>0.08688804785088336</v>
       </c>
       <c r="T7">
-        <v>0.1057766755380814</v>
+        <v>0.08429812474878473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H8">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J8">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N8">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O8">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P8">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q8">
-        <v>607.5983307710125</v>
+        <v>704.3593819985281</v>
       </c>
       <c r="R8">
-        <v>607.5983307710125</v>
+        <v>6339.234437986753</v>
       </c>
       <c r="S8">
-        <v>0.1642194637305523</v>
+        <v>0.1459398709629839</v>
       </c>
       <c r="T8">
-        <v>0.1642194637305523</v>
+        <v>0.2123846332013216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H9">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J9">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N9">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O9">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P9">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q9">
-        <v>1.731995272032129</v>
+        <v>2.428019245568</v>
       </c>
       <c r="R9">
-        <v>1.731995272032129</v>
+        <v>21.852173210112</v>
       </c>
       <c r="S9">
-        <v>0.0004681173735221491</v>
+        <v>0.0005030738916097465</v>
       </c>
       <c r="T9">
-        <v>0.0004681173735221491</v>
+        <v>0.0007321177087363437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H10">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J10">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N10">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O10">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P10">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q10">
-        <v>231.0543315317815</v>
+        <v>250.7869159575681</v>
       </c>
       <c r="R10">
-        <v>231.0543315317815</v>
+        <v>2257.082243618112</v>
       </c>
       <c r="S10">
-        <v>0.06244852313636514</v>
+        <v>0.05196184091451296</v>
       </c>
       <c r="T10">
-        <v>0.06244852313636514</v>
+        <v>0.07561947568045607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H11">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J11">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N11">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O11">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P11">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q11">
-        <v>212.1499079271499</v>
+        <v>247.59555146736</v>
       </c>
       <c r="R11">
-        <v>212.1499079271499</v>
+        <v>1485.57330880416</v>
       </c>
       <c r="S11">
-        <v>0.05733910438179356</v>
+        <v>0.05130060556534318</v>
       </c>
       <c r="T11">
-        <v>0.05733910438179356</v>
+        <v>0.04977145826842895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H12">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I12">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J12">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N12">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O12">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P12">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q12">
-        <v>62.10188840666769</v>
+        <v>64.39992100484801</v>
       </c>
       <c r="R12">
-        <v>62.10188840666769</v>
+        <v>386.3995260290881</v>
       </c>
       <c r="S12">
-        <v>0.0167846721992412</v>
+        <v>0.01334335340974207</v>
       </c>
       <c r="T12">
-        <v>0.0167846721992412</v>
+        <v>0.01294562023342919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H13">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I13">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J13">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N13">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O13">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P13">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q13">
-        <v>96.41387157347364</v>
+        <v>108.168112806534</v>
       </c>
       <c r="R13">
-        <v>96.41387157347364</v>
+        <v>973.513015258806</v>
       </c>
       <c r="S13">
-        <v>0.02605839003193251</v>
+        <v>0.02241191191420526</v>
       </c>
       <c r="T13">
-        <v>0.02605839003193251</v>
+        <v>0.03261580032810994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H14">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I14">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J14">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N14">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O14">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P14">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q14">
-        <v>0.2748334899335046</v>
+        <v>0.3728696832373333</v>
       </c>
       <c r="R14">
-        <v>0.2748334899335046</v>
+        <v>3.355827149136</v>
       </c>
       <c r="S14">
-        <v>7.428099460840306E-05</v>
+        <v>7.725680220694331E-05</v>
       </c>
       <c r="T14">
-        <v>7.428099460840306E-05</v>
+        <v>0.0001124309449553403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H15">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I15">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J15">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N15">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O15">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P15">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q15">
-        <v>36.66376538350882</v>
+        <v>38.51321940048734</v>
       </c>
       <c r="R15">
-        <v>36.66376538350882</v>
+        <v>346.618974604386</v>
       </c>
       <c r="S15">
-        <v>0.00990934896411314</v>
+        <v>0.007979753536793177</v>
       </c>
       <c r="T15">
-        <v>0.00990934896411314</v>
+        <v>0.01161284450072338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H16">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I16">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J16">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N16">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O16">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P16">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q16">
-        <v>33.6640062049827</v>
+        <v>38.023123175455</v>
       </c>
       <c r="R16">
-        <v>33.6640062049827</v>
+        <v>228.13873905273</v>
       </c>
       <c r="S16">
-        <v>0.009098584979634691</v>
+        <v>0.007878207959821202</v>
       </c>
       <c r="T16">
-        <v>0.009098584979634691</v>
+        <v>0.00764337758552973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H17">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I17">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J17">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N17">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O17">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P17">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q17">
-        <v>471.5723841575516</v>
+        <v>676.7918825139681</v>
       </c>
       <c r="R17">
-        <v>471.5723841575516</v>
+        <v>2707.167530055872</v>
       </c>
       <c r="S17">
-        <v>0.127454866339448</v>
+        <v>0.140228017865871</v>
       </c>
       <c r="T17">
-        <v>0.127454866339448</v>
+        <v>0.09069877262151602</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H18">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I18">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J18">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N18">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O18">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P18">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q18">
-        <v>732.1213645877056</v>
+        <v>1136.760721939494</v>
       </c>
       <c r="R18">
-        <v>732.1213645877056</v>
+        <v>6820.564331636963</v>
       </c>
       <c r="S18">
-        <v>0.1978750957490436</v>
+        <v>0.2355313456674946</v>
       </c>
       <c r="T18">
-        <v>0.1978750957490436</v>
+        <v>0.2285107244370635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H19">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I19">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J19">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N19">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O19">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P19">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q19">
-        <v>2.086955605046755</v>
+        <v>3.918563422330666</v>
       </c>
       <c r="R19">
-        <v>2.086955605046755</v>
+        <v>23.511380533984</v>
       </c>
       <c r="S19">
-        <v>0.0005640547594252854</v>
+        <v>0.0008119074648975162</v>
       </c>
       <c r="T19">
-        <v>0.0005640547594252854</v>
+        <v>0.0007877064619734639</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H20">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I20">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J20">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N20">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O20">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P20">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q20">
-        <v>278.4073028645298</v>
+        <v>404.7432644795807</v>
       </c>
       <c r="R20">
-        <v>278.4073028645298</v>
+        <v>2428.459586877484</v>
       </c>
       <c r="S20">
-        <v>0.07524691175017917</v>
+        <v>0.08386085470131542</v>
       </c>
       <c r="T20">
-        <v>0.07524691175017917</v>
+        <v>0.08136116492435759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H21">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I21">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J21">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.2262951485134</v>
+        <v>21.1309775</v>
       </c>
       <c r="N21">
-        <v>19.2262951485134</v>
+        <v>42.261955</v>
       </c>
       <c r="O21">
-        <v>0.1469284498271347</v>
+        <v>0.1524111868891667</v>
       </c>
       <c r="P21">
-        <v>0.1469284498271347</v>
+        <v>0.1177170633360173</v>
       </c>
       <c r="Q21">
-        <v>255.6285496895429</v>
+        <v>399.592743460655</v>
       </c>
       <c r="R21">
-        <v>255.6285496895429</v>
+        <v>1598.37097384262</v>
       </c>
       <c r="S21">
-        <v>0.06909035331115222</v>
+        <v>0.082793691556897</v>
       </c>
       <c r="T21">
-        <v>0.06909035331115222</v>
+        <v>0.05355054089260258</v>
       </c>
     </row>
   </sheetData>
